--- a/results/FrequencyTables/26538064_LTR-E.xlsx
+++ b/results/FrequencyTables/26538064_LTR-E.xlsx
@@ -468,40 +468,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00930232558139535</v>
       </c>
       <c r="D2">
-        <v>0.025974025974026</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.012987012987013</v>
+        <v>0.00697674418604651</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00465116279069767</v>
       </c>
       <c r="H2">
-        <v>0.337662337662338</v>
+        <v>0.351162790697674</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00697674418604651</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0116279069767442</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.993023255813953</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.207792207792208</v>
+        <v>0.193023255813953</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -510,28 +510,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.987012987012987</v>
+        <v>0.995348837209302</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.987012987012987</v>
+        <v>0.913953488372093</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.988372093023256</v>
       </c>
       <c r="V2">
-        <v>0.974025974025974</v>
+        <v>0.92093023255814</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00697674418604651</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.935064935064935</v>
+        <v>0.809302325581395</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00697674418604651</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -557,49 +557,49 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00930232558139535</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00930232558139535</v>
       </c>
       <c r="J3">
-        <v>0.896103896103896</v>
+        <v>0.909302325581395</v>
       </c>
       <c r="K3">
-        <v>0.025974025974026</v>
+        <v>0.00465116279069767</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="M3">
-        <v>0.831168831168831</v>
+        <v>0.92093023255814</v>
       </c>
       <c r="N3">
-        <v>0.792207792207792</v>
+        <v>0.8</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.974025974025974</v>
+        <v>0.927906976744186</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.997674418604651</v>
       </c>
       <c r="S3">
-        <v>0.012987012987013</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.995348837209302</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00697674418604651</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -613,37 +613,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00930232558139535</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00465116279069767</v>
       </c>
       <c r="D4">
-        <v>0.974025974025974</v>
+        <v>0.965116279069767</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00465116279069767</v>
       </c>
       <c r="F4">
-        <v>0.987012987012987</v>
+        <v>0.993023255813953</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.995348837209302</v>
       </c>
       <c r="H4">
-        <v>0.662337662337662</v>
+        <v>0.637209302325581</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0116279069767442</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00465116279069767</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -655,31 +655,31 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00465116279069767</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0837209302325581</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00465116279069767</v>
       </c>
       <c r="V4">
-        <v>0.025974025974026</v>
+        <v>0.0767441860465116</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.995348837209302</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.993023255813953</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0649350649350649</v>
+        <v>0.181395348837209</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.986046511627907</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.013953488372093</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.988372093023256</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -705,34 +705,34 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.983720930232558</v>
       </c>
       <c r="J5">
-        <v>0.103896103896104</v>
+        <v>0.0790697674418605</v>
       </c>
       <c r="K5">
-        <v>0.974025974025974</v>
+        <v>0.983720930232558</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.168831168831169</v>
+        <v>0.0767441860465116</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00697674418604651</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.025974025974026</v>
+        <v>0.0674418604651163</v>
       </c>
       <c r="Q5">
-        <v>0.012987012987013</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00232558139534884</v>
       </c>
       <c r="X5">
         <v>0</v>
